--- a/test-files/demo-files/21-genes_31-edges_Schade-data_estimation_output.xlsx
+++ b/test-files/demo-files/21-genes_31-edges_Schade-data_estimation_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="26715" windowHeight="14565" firstSheet="6" activeTab="12"/>
@@ -178,8 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +216,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -294,6 +299,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,6 +334,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,28 +510,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -592,7 +599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -639,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-4.5031549633143472E-2</v>
+        <v>-2.3514515608917513E-2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -660,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -719,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-0.18820887875915027</v>
+        <v>-4.2985429780012276E-3</v>
       </c>
       <c r="U3">
-        <v>-0.65095528818924187</v>
+        <v>-0.38624552336188939</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -751,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.61206654708051067</v>
+        <v>0.39937697108766507</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -778,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.15615434905189041</v>
+        <v>-3.542421905660554E-2</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -796,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -831,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.7845882338061265E-2</v>
+        <v>0.15412923517892946</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -864,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -893,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1.2320858786117657</v>
+        <v>-0.56427459214233033</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -932,12 +939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.93929482644727347</v>
+        <v>0.5757567365376377</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -982,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-2.9706773606578425</v>
+        <v>-2.4842397030421965</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1000,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.013078893117209</v>
+        <v>0.82087439304454191</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1056,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1.4282638085007962</v>
+        <v>1.1327684770336084</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.54468150571223883</v>
+        <v>5.9553955918487389E-2</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.2340986634476752</v>
+        <v>0.83975564758623178</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1133,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>-0.185164874102172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>-0.14286868649613396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.88904909468606708</v>
+        <v>-0.69096132225449591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1204,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1233,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.40302862152830743</v>
+        <v>-0.22265277936169836</v>
       </c>
       <c r="K11">
-        <v>-0.89655567768121591</v>
+        <v>-0.8996511802531113</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1272,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-1.0194851212470761E-2</v>
+        <v>6.1917390514168039E-3</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1340,12 +1347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
-        <v>-0.92778950125443505</v>
+        <v>-0.73244365573264869</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1384,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>-0.43150437543692094</v>
+        <v>-0.15618188320482398</v>
       </c>
       <c r="P13">
-        <v>-0.50707438551092265</v>
+        <v>-0.42315373918803745</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1405,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0.57442464534242077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>0.5420485402062647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.4998823249016862</v>
+        <v>1.1928081309101652</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1476,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>-1.3615135448898985</v>
+        <v>-1.0326913096587651</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1541,18 +1548,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>-0.40819045291287759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>-0.1323464725248332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16">
-        <v>-0.53122367215985489</v>
+        <v>-0.41636565981609769</v>
       </c>
       <c r="C16">
-        <v>-0.12925221861874403</v>
+        <v>-7.6164083342736888E-2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1570,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.62145042255406946</v>
+        <v>0.52856732884138802</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1582,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.75033136906382225</v>
+        <v>-0.63500590553074698</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.4592250590864119E-2</v>
+        <v>7.5648134719757384E-2</v>
       </c>
       <c r="P16">
-        <v>-0.30267311122041535</v>
+        <v>-0.14781774867848457</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1612,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1816,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2026,16 +2033,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2057,7 +2064,7 @@
         <v>0.86375907025127707</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>-8.4512094623483261E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2079,7 +2086,7 @@
         <v>-2.7036238635246637E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2097,7 @@
         <v>0.31799160987778807</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2108,7 @@
         <v>2.0785480271819798</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>0.30848217294835073</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>0.59772497124282109</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2134,7 +2141,7 @@
         <v>0.91436086323291665</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +2152,7 @@
         <v>-8.3565942702706703E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2156,7 +2163,7 @@
         <v>-0.18435844242715063</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2167,7 +2174,7 @@
         <v>-0.19668331979958451</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>-1.8473389582098459E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2196,7 @@
         <v>-1.0934878631044176</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2207,7 @@
         <v>1.5145734224690381</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>0.35275459473035098</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2222,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2255,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2266,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2283,16 +2290,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2360,7 +2367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2428,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2700,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2768,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2904,7 +2911,7 @@
         <v>-0.185164874102172</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3040,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3176,7 +3183,7 @@
         <v>0.57442464534242077</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3244,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>-0.40819045291287759</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3516,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -3584,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3652,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3720,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3794,16 +3801,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3823,7 +3830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3843,7 +3850,7 @@
         <v>0.70113230605848431</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +3870,7 @@
         <v>0.64255017478057119</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3883,7 +3890,7 @@
         <v>0.27838685574573035</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>0.63214516421357758</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3923,7 +3930,7 @@
         <v>0.42823496437234221</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>4.8795433799243088E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3963,7 +3970,7 @@
         <v>0.49603588739778276</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>0.87095586318119766</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4003,7 +4010,7 @@
         <v>0.32190956976908647</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4023,7 +4030,7 @@
         <v>0.61484906015845053</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4043,7 +4050,7 @@
         <v>0.55944943488351928</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4063,7 +4070,7 @@
         <v>0.60909208857869224</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>0.18767426433518369</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4103,7 +4110,7 @@
         <v>1.0858535453491927</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>0.31773877344830698</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4143,7 +4150,7 @@
         <v>0.55774523004671794</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>1.28722744723447</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4183,7 +4190,7 @@
         <v>0.83003274855249065</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4203,7 +4210,7 @@
         <v>0.29430825608901451</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>0.14488756926375135</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4249,40 +4256,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4302,7 +4309,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4322,7 +4329,7 @@
         <v>0.48435089511121021</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>-0.81793317594908443</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4362,7 +4369,7 @@
         <v>-0.75147912525362393</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>0.8561782188284095</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>-0.37427042872419891</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>4.7013326873905102E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>1.1248372482258766</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4462,7 +4469,7 @@
         <v>-0.30259736113703295</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4482,7 +4489,7 @@
         <v>0.55135867455041376</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4502,7 +4509,7 @@
         <v>5.8441255712988402E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4522,7 +4529,7 @@
         <v>0.34910882026688672</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4542,7 +4549,7 @@
         <v>-0.21167047056013749</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4562,7 +4569,7 @@
         <v>0.70320378879765943</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4582,7 +4589,7 @@
         <v>1.3499275795365722</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4602,7 +4609,7 @@
         <v>0.28201661662499822</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4622,7 +4629,7 @@
         <v>-1.2538405721454773</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4642,7 +4649,7 @@
         <v>-0.34874733011964443</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4662,7 +4669,7 @@
         <v>-0.35846845614647627</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4682,7 +4689,7 @@
         <v>0.58491872133390754</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4702,7 +4709,7 @@
         <v>0.10759743563684412</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4728,16 +4735,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4784,7 +4791,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4831,7 +4838,7 @@
         <v>0.35772751462172414</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4878,7 +4885,7 @@
         <v>-0.7828780372145302</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4925,7 +4932,7 @@
         <v>-0.74533690915468354</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4972,7 +4979,7 @@
         <v>0.70619458831911108</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5019,7 +5026,7 @@
         <v>-0.5028596007403463</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5066,7 +5073,7 @@
         <v>2.947576173232247E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5113,7 +5120,7 @@
         <v>1.0555313724217021</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5160,7 +5167,7 @@
         <v>-0.29154062712550571</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5207,7 +5214,7 @@
         <v>0.77771527152471331</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5254,7 +5261,7 @@
         <v>5.5864663129260972E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5301,7 +5308,7 @@
         <v>0.35345576386562971</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5348,7 +5355,7 @@
         <v>-0.19122675163066438</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5395,7 +5402,7 @@
         <v>0.75451629384667473</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5442,7 +5449,7 @@
         <v>1.2262620760693883</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>0.33022485869868545</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5536,7 +5543,7 @@
         <v>-0.64617261382469604</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5583,7 +5590,7 @@
         <v>-0.28284669362590764</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5630,7 +5637,7 @@
         <v>-0.27370939103373881</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5677,7 +5684,7 @@
         <v>0.51404648371380757</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5724,7 +5731,7 @@
         <v>0.39396571986694728</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5777,16 +5784,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5797,7 +5804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5808,7 +5815,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5819,7 +5826,7 @@
         <v>2.5672117798516494E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5830,7 +5837,7 @@
         <v>1.7328679513998631E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>1.1002336199364211E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5852,7 +5859,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5863,7 +5870,7 @@
         <v>7.7016353395549478E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5874,7 +5881,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5885,7 +5892,7 @@
         <v>6.9314718055994526E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5896,7 +5903,7 @@
         <v>1.6503504299046318E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5907,7 +5914,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5918,7 +5925,7 @@
         <v>5.7762265046662105E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5929,7 +5936,7 @@
         <v>1.332975347230664E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5940,7 +5947,7 @@
         <v>1.2602676010180823E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5951,7 +5958,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5962,7 +5969,7 @@
         <v>3.3007008598092635E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5973,7 +5980,7 @@
         <v>0.34657359027997264</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5984,7 +5991,7 @@
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -6006,7 +6013,7 @@
         <v>7.453195489891885E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6017,7 +6024,7 @@
         <v>4.9510512897138946E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -6034,16 +6041,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +6061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6065,7 +6072,7 @@
         <v>6.242669444439939E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6076,7 +6083,7 @@
         <v>0.10522676713463036</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>2.0858239697015505E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6098,7 +6105,7 @@
         <v>3.3546638513152101E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6109,7 +6116,7 @@
         <v>3.9619455373539288E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6120,7 +6127,7 @@
         <v>0.18601110490312825</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -6131,7 +6138,7 @@
         <v>0.13123236983890324</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6142,7 +6149,7 @@
         <v>0.20777488757745535</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6153,7 +6160,7 @@
         <v>5.4767494999982819E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>0.17120461804021761</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -6175,7 +6182,7 @@
         <v>0.13383936151722145</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -6186,7 +6193,7 @@
         <v>4.6082765886743558E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -6197,7 +6204,7 @@
         <v>0.6910371803648</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6208,7 +6215,7 @@
         <v>0.1741844147037204</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6219,7 +6226,7 @@
         <v>7.9007782962686582E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -6230,7 +6237,7 @@
         <v>0.44288657618668342</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6241,7 +6248,7 @@
         <v>0.37982964972805122</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -6252,7 +6259,7 @@
         <v>4.4591654910338729E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -6263,7 +6270,7 @@
         <v>2.5700240496800562E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6274,7 +6281,7 @@
         <v>0.13019562378812793</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -6291,16 +6298,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -6323,16 +6330,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -6400,7 +6407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6468,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6536,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6604,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6672,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6740,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6808,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6876,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6944,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -7012,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7080,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7148,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -7216,7 +7223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -7352,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -7420,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -7488,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7556,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -7624,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7692,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -7760,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>

--- a/test-files/demo-files/21-genes_31-edges_Schade-data_estimation_output.xlsx
+++ b/test-files/demo-files/21-genes_31-edges_Schade-data_estimation_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Documents\GRNsight\Import-Export_testing_20160802\revise-demo-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="26715" windowHeight="14565" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12660" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,20 +174,34 @@
     <t>time</t>
   </si>
   <si>
-    <t>rows genes affected/cols genes controlling</t>
+    <t>b</t>
   </si>
   <si>
-    <t>b</t>
+    <t>cols regulators/rows targets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,8 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +241,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -267,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,83 +550,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
+      <c r="A1" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -646,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-2.3514515608917513E-2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -669,7 +707,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -726,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-4.2985429780012276E-3</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-0.38624552336188939</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -737,7 +775,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -745,8 +783,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="2">
+        <v>-0.8996511802531113</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -758,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.39937697108766507</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -781,11 +819,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>0</v>
+      <c r="P4" s="2">
+        <v>-0.22265277936169836</v>
       </c>
       <c r="Q4">
-        <v>-3.542421905660554E-2</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -805,7 +843,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -838,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.15412923517892946</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -867,13 +905,13 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="V5" s="2">
+        <v>-2.3514515608917513E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -900,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.56427459214233033</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-4.2985429780012276E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -914,8 +952,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" s="2">
+        <v>-0.38624552336188939</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -941,10 +979,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.5757567365376377</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-3.542421905660554E-2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -976,8 +1014,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="M7" s="2">
+        <v>0.39937697108766507</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -989,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-2.4842397030421965</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1009,7 +1047,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1036,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.82087439304454191</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1056,20 +1094,20 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
+      <c r="Q8" s="2">
+        <v>0.15412923517892946</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1.1327684770336084</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>5.9553955918487389E-2</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1077,7 +1115,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1101,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.83975564758623178</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1140,12 +1178,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>-0.14286868649613396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1172,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.69096132225449591</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1189,8 +1227,8 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="P10" s="2">
+        <v>-0.56427459214233033</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1213,7 +1251,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1240,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.22265277936169836</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-0.8996511802531113</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1281,10 +1319,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-2.4842397030421965</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1292,11 +1330,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>0.5757567365376377</v>
       </c>
       <c r="F12">
-        <v>6.1917390514168039E-3</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1349,10 +1387,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.73244365573264869</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1372,8 +1410,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" s="2">
+        <v>1.1327684770336084</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1390,11 +1428,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>-0.15618188320482398</v>
-      </c>
-      <c r="P13">
-        <v>-0.42315373918803745</v>
+      <c r="O13" s="2">
+        <v>5.9553955918487389E-2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.82087439304454191</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1412,12 +1450,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0.5420485402062647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1444,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.1928081309101652</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1455,8 +1493,8 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>0</v>
+      <c r="N14" s="2">
+        <v>0.83975564758623178</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1473,8 +1511,8 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
+      <c r="T14" s="2">
+        <v>-0.14286868649613396</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1485,7 +1523,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1536,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>-1.0326913096587651</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1548,18 +1586,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>-0.1323464725248332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.41636565981609769</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>-7.6164083342736888E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1577,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.52856732884138802</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1589,16 +1627,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.63500590553074698</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.5648134719757384E-2</v>
-      </c>
-      <c r="P16">
-        <v>-0.14781774867848457</v>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-0.69096132225449591</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1621,7 +1659,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1647,8 +1685,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="J17" s="2">
+        <v>6.1917390514168039E-3</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1689,7 +1727,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1700,8 +1738,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" s="2">
+        <v>-0.73244365573264869</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1745,19 +1783,19 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
+      <c r="T18" s="2">
+        <v>0.5420485402062647</v>
+      </c>
+      <c r="U18" s="2">
+        <v>-0.15618188320482398</v>
+      </c>
+      <c r="V18" s="2">
+        <v>-0.42315373918803745</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1801,8 +1839,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>0</v>
+      <c r="P19" s="2">
+        <v>1.1928081309101652</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1825,7 +1863,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1893,13 +1931,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" s="2">
+        <v>-1.0326913096587651</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1949,8 +1987,8 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
+      <c r="T21" s="2">
+        <v>-0.1323464725248332</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -1961,7 +1999,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1972,11 +2010,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22" s="2">
+        <v>-0.41636565981609769</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-7.6164083342736888E-2</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1999,8 +2037,8 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
+      <c r="N22" s="2">
+        <v>0.52856732884138802</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2011,8 +2049,8 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="R22" s="2">
+        <v>-0.63500590553074698</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2020,15 +2058,19 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
+      <c r="U22" s="2">
+        <v>7.5648134719757384E-2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>-0.14781774867848457</v>
       </c>
     </row>
   </sheetData>
+  <sortState columnSort="1" ref="B1:V22">
+    <sortCondition ref="B1:V1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2050,213 +2092,213 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>0.86375907025127707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>-8.4512094623483261E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>-2.7036238635246637E-2</v>
+        <v>-0.18435844242715063</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.31799160987778807</v>
+        <v>0.86375907025127707</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.0785480271819798</v>
+        <v>-8.4512094623483261E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.30848217294835073</v>
+        <v>-2.7036238635246637E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.59772497124282109</v>
+        <v>0.31799160987778807</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>0.91436086323291665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>-8.3565942702706703E-2</v>
+        <v>2.0785480271819798</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>-0.18435844242715063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>-0.19668331979958451</v>
+        <v>0.30848217294835073</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>-1.8473389582098459E-2</v>
+        <v>0.59772497124282109</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>-1.0934878631044176</v>
+        <v>0.91436086323291665</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>1.5145734224690381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>0.35275459473035098</v>
+        <v>-8.3565942702706703E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.19668331979958451</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-1.8473389582098459E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-1.0934878631044176</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2264,27 +2306,30 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1.5145734224690381</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.35275459473035098</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2293,83 +2338,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
+      <c r="A1" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2414,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-4.5031549633143472E-2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2437,7 +2495,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2494,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-0.18820887875915027</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>-0.65095528818924187</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2505,7 +2563,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2513,8 +2571,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="2">
+        <v>-0.89655567768121591</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2526,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.61206654708051067</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2549,11 +2607,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>0</v>
+      <c r="P4" s="2">
+        <v>-0.40302862152830743</v>
       </c>
       <c r="Q4">
-        <v>0.15615434905189041</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2573,7 +2631,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2606,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.7845882338061265E-2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2635,13 +2693,13 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="V5" s="2">
+        <v>-4.5031549633143472E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2668,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1.2320858786117657</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-0.18820887875915027</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2682,8 +2740,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="O6" s="2">
+        <v>-0.65095528818924187</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2709,10 +2767,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.93929482644727347</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.15615434905189041</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2744,8 +2802,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="M7" s="2">
+        <v>0.61206654708051067</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2757,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-2.9706773606578425</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2777,7 +2835,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2804,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.013078893117209</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2824,20 +2882,20 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
+      <c r="Q8" s="2">
+        <v>7.7845882338061265E-2</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1.4282638085007962</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.54468150571223883</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2845,7 +2903,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2869,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.2340986634476752</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2908,12 +2966,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>-0.185164874102172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2940,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.88904909468606708</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2957,8 +3015,8 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="P10" s="2">
+        <v>-1.2320858786117657</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2981,7 +3039,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3008,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.40302862152830743</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-0.89655567768121591</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3049,10 +3107,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-2.9706773606578425</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3060,11 +3118,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>0.93929482644727347</v>
       </c>
       <c r="F12">
-        <v>-1.0194851212470761E-2</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3117,10 +3175,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.92778950125443505</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3140,8 +3198,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="I13" s="2">
+        <v>1.4282638085007962</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3158,11 +3216,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>-0.43150437543692094</v>
-      </c>
-      <c r="P13">
-        <v>-0.50707438551092265</v>
+      <c r="O13" s="2">
+        <v>0.54468150571223883</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.013078893117209</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3180,12 +3238,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0.57442464534242077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3212,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.4998823249016862</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3223,8 +3281,8 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>0</v>
+      <c r="N14" s="2">
+        <v>1.2340986634476752</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3241,8 +3299,8 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
+      <c r="T14" s="2">
+        <v>-0.185164874102172</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3253,7 +3311,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3304,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>-1.3615135448898985</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3316,18 +3374,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>-0.40819045291287759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.53122367215985489</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>-0.12925221861874403</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3345,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.62145042255406946</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3357,16 +3415,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.75033136906382225</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.4592250590864119E-2</v>
-      </c>
-      <c r="P16">
-        <v>-0.30267311122041535</v>
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-0.88904909468606708</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3389,7 +3447,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3415,8 +3473,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="J17" s="2">
+        <v>-1.0194851212470761E-2</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3457,7 +3515,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3468,8 +3526,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" s="2">
+        <v>-0.92778950125443505</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3513,19 +3571,19 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
+      <c r="T18" s="2">
+        <v>0.57442464534242077</v>
+      </c>
+      <c r="U18" s="2">
+        <v>-0.43150437543692094</v>
+      </c>
+      <c r="V18" s="2">
+        <v>-0.50707438551092265</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3569,8 +3627,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>0</v>
+      <c r="P19" s="2">
+        <v>1.4998823249016862</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3593,7 +3651,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3661,13 +3719,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" s="2">
+        <v>-1.3615135448898985</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3717,8 +3775,8 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
+      <c r="T21" s="2">
+        <v>-0.40819045291287759</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3729,7 +3787,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3740,11 +3798,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+      <c r="E22" s="2">
+        <v>-0.53122367215985489</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-0.12925221861874403</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3767,8 +3825,8 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
+      <c r="N22" s="2">
+        <v>0.62145042255406946</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3779,8 +3837,8 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="R22" s="2">
+        <v>-0.75033136906382225</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3788,14 +3846,17 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
+      <c r="U22" s="2">
+        <v>1.4592250590864119E-2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>-0.30267311122041535</v>
       </c>
     </row>
   </sheetData>
+  <sortState columnSort="1" ref="B1:V22">
+    <sortCondition ref="B1:V1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3804,9 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3832,425 +3891,428 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>1.1214181944663999</v>
+        <v>2.7177748798661061</v>
       </c>
       <c r="D2">
-        <v>0.55852538968895904</v>
+        <v>0.27986899329141984</v>
       </c>
       <c r="E2">
-        <v>0.35044008182832931</v>
+        <v>0.52274878365032373</v>
       </c>
       <c r="F2">
-        <v>0.70113230605848431</v>
+        <v>0.55774523004671794</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>0.57158812657450464</v>
+        <v>0.6586583874324683</v>
       </c>
       <c r="D3">
-        <v>0.47686276651665133</v>
+        <v>0.55974171992608035</v>
       </c>
       <c r="E3">
-        <v>0.53273183755838238</v>
+        <v>1.319442536378483</v>
       </c>
       <c r="F3">
-        <v>0.64255017478057119</v>
+        <v>1.28722744723447</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>0.55180971487647335</v>
+        <v>0.10306041466144411</v>
       </c>
       <c r="D4">
-        <v>0.31090721363028317</v>
+        <v>0.48057607567481353</v>
       </c>
       <c r="E4">
-        <v>0.41359697197230688</v>
+        <v>0.92592442334034009</v>
       </c>
       <c r="F4">
-        <v>0.27838685574573035</v>
+        <v>0.61484906015845053</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.63754394609139609</v>
+        <v>1.1214181944663999</v>
       </c>
       <c r="D5">
-        <v>0.63813647210334568</v>
+        <v>0.55852538968895904</v>
       </c>
       <c r="E5">
-        <v>0.37092085908273081</v>
+        <v>0.35044008182832931</v>
       </c>
       <c r="F5">
-        <v>0.63214516421357758</v>
+        <v>0.70113230605848431</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.47237428919404129</v>
+        <v>0.57158812657450464</v>
       </c>
       <c r="D6">
-        <v>0.1253536405040945</v>
+        <v>0.47686276651665133</v>
       </c>
       <c r="E6">
-        <v>0.61688474848806962</v>
+        <v>0.53273183755838238</v>
       </c>
       <c r="F6">
-        <v>0.42823496437234221</v>
+        <v>0.64255017478057119</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.51768689267243395</v>
+        <v>0.55180971487647335</v>
       </c>
       <c r="D7">
-        <v>0.5694671676316122</v>
+        <v>0.31090721363028317</v>
       </c>
       <c r="E7">
-        <v>0.573163984104746</v>
+        <v>0.41359697197230688</v>
       </c>
       <c r="F7">
-        <v>4.8795433799243088E-2</v>
+        <v>0.27838685574573035</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.70098949243155906</v>
+        <v>0.63754394609139609</v>
       </c>
       <c r="D8">
-        <v>0.35039020182799707</v>
+        <v>0.63813647210334568</v>
       </c>
       <c r="E8">
-        <v>0.83865738454812822</v>
+        <v>0.37092085908273081</v>
       </c>
       <c r="F8">
-        <v>0.49603588739778276</v>
+        <v>0.63214516421357758</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>0.95032614185344622</v>
+        <v>0.75068184269056393</v>
       </c>
       <c r="D9">
-        <v>0.63711583591311149</v>
+        <v>0.5674254331903027</v>
       </c>
       <c r="E9">
-        <v>1.340224716292816</v>
+        <v>0.17203591027849979</v>
       </c>
       <c r="F9">
-        <v>0.87095586318119766</v>
+        <v>0.83003274855249065</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>0.49738058221474313</v>
+        <v>0.47237428919404129</v>
       </c>
       <c r="D10">
-        <v>0.58058477549395449</v>
+        <v>0.1253536405040945</v>
       </c>
       <c r="E10">
-        <v>1.2096600128564565</v>
+        <v>0.61688474848806962</v>
       </c>
       <c r="F10">
-        <v>0.32190956976908647</v>
+        <v>0.42823496437234221</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>0.10306041466144411</v>
+        <v>0.49087127359962673</v>
       </c>
       <c r="D11">
-        <v>0.48057607567481353</v>
+        <v>0.52381980970726594</v>
       </c>
       <c r="E11">
-        <v>0.92592442334034009</v>
+        <v>0.70269830091504848</v>
       </c>
       <c r="F11">
-        <v>0.61484906015845053</v>
+        <v>0.29430825608901451</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0.92772462709714409</v>
+        <v>0.51768689267243395</v>
       </c>
       <c r="D12">
-        <v>0.68824724177465868</v>
+        <v>0.5694671676316122</v>
       </c>
       <c r="E12">
-        <v>0.4836055653146335</v>
+        <v>0.573163984104746</v>
       </c>
       <c r="F12">
-        <v>0.55944943488351928</v>
+        <v>4.8795433799243088E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>8.5967040250942206E-2</v>
+        <v>0.70098949243155906</v>
       </c>
       <c r="D13">
-        <v>0.40660154548362171</v>
+        <v>0.35039020182799707</v>
       </c>
       <c r="E13">
-        <v>0.52373427911532888</v>
+        <v>0.83865738454812822</v>
       </c>
       <c r="F13">
-        <v>0.60909208857869224</v>
+        <v>0.49603588739778276</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0.30443390807943443</v>
+        <v>0.95032614185344622</v>
       </c>
       <c r="D14">
-        <v>0.58313579961105511</v>
+        <v>0.63711583591311149</v>
       </c>
       <c r="E14">
-        <v>0.60087124890148358</v>
+        <v>1.340224716292816</v>
       </c>
       <c r="F14">
-        <v>0.18767426433518369</v>
+        <v>0.87095586318119766</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>2.1208263903979594</v>
+        <v>0.78318104487840923</v>
       </c>
       <c r="D15">
-        <v>0.70642644745686445</v>
+        <v>0.85545871714953736</v>
       </c>
       <c r="E15">
-        <v>0.6742254020177878</v>
+        <v>0.72016694852557961</v>
       </c>
       <c r="F15">
-        <v>1.0858535453491927</v>
+        <v>0.14488756926375135</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>0.53109793978089415</v>
+        <v>0.49738058221474313</v>
       </c>
       <c r="D16">
-        <v>1.7313088101174661</v>
+        <v>0.58058477549395449</v>
       </c>
       <c r="E16">
-        <v>0.58748476905001557</v>
+        <v>1.2096600128564565</v>
       </c>
       <c r="F16">
-        <v>0.31773877344830698</v>
+        <v>0.32190956976908647</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>2.7177748798661061</v>
+        <v>0.92772462709714409</v>
       </c>
       <c r="D17">
-        <v>0.27986899329141984</v>
+        <v>0.68824724177465868</v>
       </c>
       <c r="E17">
-        <v>0.52274878365032373</v>
+        <v>0.4836055653146335</v>
       </c>
       <c r="F17">
-        <v>0.55774523004671794</v>
+        <v>0.55944943488351928</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.6586583874324683</v>
+        <v>8.5967040250942206E-2</v>
       </c>
       <c r="D18">
-        <v>0.55974171992608035</v>
+        <v>0.40660154548362171</v>
       </c>
       <c r="E18">
-        <v>1.319442536378483</v>
+        <v>0.52373427911532888</v>
       </c>
       <c r="F18">
-        <v>1.28722744723447</v>
+        <v>0.60909208857869224</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>0.75068184269056393</v>
+        <v>0.30443390807943443</v>
       </c>
       <c r="D19">
-        <v>0.5674254331903027</v>
+        <v>0.58313579961105511</v>
       </c>
       <c r="E19">
-        <v>0.17203591027849979</v>
+        <v>0.60087124890148358</v>
       </c>
       <c r="F19">
-        <v>0.83003274855249065</v>
+        <v>0.18767426433518369</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>0.49087127359962673</v>
+        <v>1.4653540440729975</v>
       </c>
       <c r="D20">
-        <v>0.52381980970726594</v>
+        <v>0.31089283552347502</v>
       </c>
       <c r="E20">
-        <v>0.70269830091504848</v>
+        <v>0.82435352899221048</v>
       </c>
       <c r="F20">
-        <v>0.29430825608901451</v>
+        <v>0.80815140874532154</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>0.78318104487840923</v>
+        <v>2.1208263903979594</v>
       </c>
       <c r="D21">
-        <v>0.85545871714953736</v>
+        <v>0.70642644745686445</v>
       </c>
       <c r="E21">
-        <v>0.72016694852557961</v>
+        <v>0.6742254020177878</v>
       </c>
       <c r="F21">
-        <v>0.14488756926375135</v>
+        <v>1.0858535453491927</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>1.4653540440729975</v>
+        <v>0.53109793978089415</v>
       </c>
       <c r="D22">
-        <v>0.31089283552347502</v>
+        <v>1.7313088101174661</v>
       </c>
       <c r="E22">
-        <v>0.82435352899221048</v>
+        <v>0.58748476905001557</v>
       </c>
       <c r="F22">
-        <v>0.80815140874532154</v>
+        <v>0.31773877344830698</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4283,9 +4345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4311,425 +4371,428 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>-0.23499151639564886</v>
+        <v>1.62100239431284</v>
       </c>
       <c r="D2">
-        <v>-7.4111312717806896E-2</v>
+        <v>-0.353687539565399</v>
       </c>
       <c r="E2">
-        <v>-4.5672082000020486E-2</v>
+        <v>-0.26904411992483118</v>
       </c>
       <c r="F2">
-        <v>0.48435089511121021</v>
+        <v>-1.2538405721454773</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>0.4326416512725948</v>
+        <v>-0.54236208810543562</v>
       </c>
       <c r="D3">
-        <v>-3.0668487916819701E-2</v>
+        <v>-2.4845402327842971E-2</v>
       </c>
       <c r="E3">
-        <v>-0.16312292236414141</v>
+        <v>-0.41536949244534521</v>
       </c>
       <c r="F3">
-        <v>-0.81793317594908443</v>
+        <v>-0.34874733011964443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>-0.54635409361384002</v>
+        <v>-0.32846952226326981</v>
       </c>
       <c r="D4">
-        <v>-0.17770217544002159</v>
+        <v>0.39646443321930358</v>
       </c>
       <c r="E4">
-        <v>-0.23678158387819867</v>
+        <v>0.11581866203986679</v>
       </c>
       <c r="F4">
-        <v>-0.75147912525362393</v>
+        <v>5.8441255712988402E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.33742354680821629</v>
+        <v>-0.23499151639564886</v>
       </c>
       <c r="D5">
-        <v>-0.18941776396225327</v>
+        <v>-7.4111312717806896E-2</v>
       </c>
       <c r="E5">
-        <v>0.12236189160414897</v>
+        <v>-4.5672082000020486E-2</v>
       </c>
       <c r="F5">
-        <v>0.8561782188284095</v>
+        <v>0.48435089511121021</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>-3.8567306292018968E-3</v>
+        <v>0.4326416512725948</v>
       </c>
       <c r="D6">
-        <v>-0.14598311750820731</v>
+        <v>-3.0668487916819701E-2</v>
       </c>
       <c r="E6">
-        <v>-0.77987217081516391</v>
+        <v>-0.16312292236414141</v>
       </c>
       <c r="F6">
-        <v>-0.37427042872419891</v>
+        <v>-0.81793317594908443</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>-0.14157029879722779</v>
+        <v>-0.54635409361384002</v>
       </c>
       <c r="D7">
-        <v>-0.41393783531037709</v>
+        <v>-0.17770217544002159</v>
       </c>
       <c r="E7">
-        <v>8.9308435643215237E-2</v>
+        <v>-0.23678158387819867</v>
       </c>
       <c r="F7">
-        <v>4.7013326873905102E-2</v>
+        <v>-0.75147912525362393</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-7.0669015655425342E-3</v>
+        <v>-0.33742354680821629</v>
       </c>
       <c r="D8">
-        <v>0.29688216043647697</v>
+        <v>-0.18941776396225327</v>
       </c>
       <c r="E8">
-        <v>0.25764922912773286</v>
+        <v>0.12236189160414897</v>
       </c>
       <c r="F8">
-        <v>1.1248372482258766</v>
+        <v>0.8561782188284095</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>-0.44126548217999884</v>
+        <v>0.19671308566348053</v>
       </c>
       <c r="D9">
-        <v>-0.1239172604895365</v>
+        <v>-0.21531120437807896</v>
       </c>
       <c r="E9">
-        <v>0.51530764708834054</v>
+        <v>8.5925972742487422E-2</v>
       </c>
       <c r="F9">
-        <v>-0.30259736113703295</v>
+        <v>-0.35846845614647627</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>-0.22472535874945695</v>
+        <v>-3.8567306292018968E-3</v>
       </c>
       <c r="D10">
-        <v>-2.2738389655590812E-2</v>
+        <v>-0.14598311750820731</v>
       </c>
       <c r="E10">
-        <v>0.33972787633317569</v>
+        <v>-0.77987217081516391</v>
       </c>
       <c r="F10">
-        <v>0.55135867455041376</v>
+        <v>-0.37427042872419891</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>-0.32846952226326981</v>
+        <v>-0.77986453280971368</v>
       </c>
       <c r="D11">
-        <v>0.39646443321930358</v>
+        <v>-0.17741630704528819</v>
       </c>
       <c r="E11">
-        <v>0.11581866203986679</v>
+        <v>7.609436340254809E-2</v>
       </c>
       <c r="F11">
-        <v>5.8441255712988402E-2</v>
+        <v>0.58491872133390754</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>7.5245867435778102E-2</v>
+        <v>-0.14157029879722779</v>
       </c>
       <c r="D12">
-        <v>0.1991566212270075</v>
+        <v>-0.41393783531037709</v>
       </c>
       <c r="E12">
-        <v>0.26671618423813243</v>
+        <v>8.9308435643215237E-2</v>
       </c>
       <c r="F12">
-        <v>0.34910882026688672</v>
+        <v>4.7013326873905102E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>-0.35070290232852686</v>
+        <v>-7.0669015655425342E-3</v>
       </c>
       <c r="D13">
-        <v>-0.2928954490419074</v>
+        <v>0.29688216043647697</v>
       </c>
       <c r="E13">
-        <v>0.23433955268713946</v>
+        <v>0.25764922912773286</v>
       </c>
       <c r="F13">
-        <v>-0.21167047056013749</v>
+        <v>1.1248372482258766</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0.67656669842477513</v>
+        <v>-0.44126548217999884</v>
       </c>
       <c r="D14">
-        <v>1.1362539127863669</v>
+        <v>-0.1239172604895365</v>
       </c>
       <c r="E14">
-        <v>0.89520225352892835</v>
+        <v>0.51530764708834054</v>
       </c>
       <c r="F14">
-        <v>0.70320378879765943</v>
+        <v>-0.30259736113703295</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>-0.65249310116925108</v>
+        <v>-2.0643160241884395E-2</v>
       </c>
       <c r="D15">
-        <v>0.18969540653388575</v>
+        <v>0.32467730369134934</v>
       </c>
       <c r="E15">
-        <v>0.30969695475694581</v>
+        <v>0.57068402112966743</v>
       </c>
       <c r="F15">
-        <v>1.3499275795365722</v>
+        <v>0.10759743563684412</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>0.13453506928279035</v>
+        <v>-0.22472535874945695</v>
       </c>
       <c r="D16">
-        <v>-0.25431053152681732</v>
+        <v>-2.2738389655590812E-2</v>
       </c>
       <c r="E16">
-        <v>7.7965858058161974E-2</v>
+        <v>0.33972787633317569</v>
       </c>
       <c r="F16">
-        <v>0.28201661662499822</v>
+        <v>0.55135867455041376</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>1.62100239431284</v>
+        <v>7.5245867435778102E-2</v>
       </c>
       <c r="D17">
-        <v>-0.353687539565399</v>
+        <v>0.1991566212270075</v>
       </c>
       <c r="E17">
-        <v>-0.26904411992483118</v>
+        <v>0.26671618423813243</v>
       </c>
       <c r="F17">
-        <v>-1.2538405721454773</v>
+        <v>0.34910882026688672</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>-0.54236208810543562</v>
+        <v>-0.35070290232852686</v>
       </c>
       <c r="D18">
-        <v>-2.4845402327842971E-2</v>
+        <v>-0.2928954490419074</v>
       </c>
       <c r="E18">
-        <v>-0.41536949244534521</v>
+        <v>0.23433955268713946</v>
       </c>
       <c r="F18">
-        <v>-0.34874733011964443</v>
+        <v>-0.21167047056013749</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>0.19671308566348053</v>
+        <v>0.67656669842477513</v>
       </c>
       <c r="D19">
-        <v>-0.21531120437807896</v>
+        <v>1.1362539127863669</v>
       </c>
       <c r="E19">
-        <v>8.5925972742487422E-2</v>
+        <v>0.89520225352892835</v>
       </c>
       <c r="F19">
-        <v>-0.35846845614647627</v>
+        <v>0.70320378879765943</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>-0.77986453280971368</v>
+        <v>0.18843261371997691</v>
       </c>
       <c r="D20">
-        <v>-0.17741630704528819</v>
+        <v>3.5468776726524702E-2</v>
       </c>
       <c r="E20">
-        <v>7.609436340254809E-2</v>
+        <v>0.16851858275872603</v>
       </c>
       <c r="F20">
-        <v>0.58491872133390754</v>
+        <v>0.93517884621662606</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>-2.0643160241884395E-2</v>
+        <v>-0.65249310116925108</v>
       </c>
       <c r="D21">
-        <v>0.32467730369134934</v>
+        <v>0.18969540653388575</v>
       </c>
       <c r="E21">
-        <v>0.57068402112966743</v>
+        <v>0.30969695475694581</v>
       </c>
       <c r="F21">
-        <v>0.10759743563684412</v>
+        <v>1.3499275795365722</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>0.18843261371997691</v>
+        <v>0.13453506928279035</v>
       </c>
       <c r="D22">
-        <v>3.5468776726524702E-2</v>
+        <v>-0.25431053152681732</v>
       </c>
       <c r="E22">
-        <v>0.16851858275872603</v>
+        <v>7.7965858058161974E-2</v>
       </c>
       <c r="F22">
-        <v>0.93517884621662606</v>
+        <v>0.28201661662499822</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4738,9 +4801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4793,992 +4854,995 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.0125107487224438E-2</v>
+        <v>-0.62094758928550564</v>
       </c>
       <c r="E2">
-        <v>0.10126599757551191</v>
+        <v>-0.64531981187642584</v>
       </c>
       <c r="F2">
-        <v>0.13414201112186874</v>
+        <v>-0.64630078127172341</v>
       </c>
       <c r="G2">
-        <v>0.16407140227023453</v>
+        <v>-0.64674596138139806</v>
       </c>
       <c r="H2">
-        <v>0.19321135843894599</v>
+        <v>-0.64621899239190284</v>
       </c>
       <c r="I2">
-        <v>0.22199124993170549</v>
+        <v>-0.64637770785169479</v>
       </c>
       <c r="J2">
-        <v>0.25000071813577784</v>
+        <v>-0.6466267148139111</v>
       </c>
       <c r="K2">
-        <v>0.27655056650146292</v>
+        <v>-0.64696838339731266</v>
       </c>
       <c r="L2">
-        <v>0.30097840862463809</v>
+        <v>-0.64688274589026096</v>
       </c>
       <c r="M2">
-        <v>0.3227944366636879</v>
+        <v>-0.64654048094859995</v>
       </c>
       <c r="N2">
-        <v>0.3417293762947452</v>
+        <v>-0.64640212240371864</v>
       </c>
       <c r="O2">
-        <v>0.35772751462172414</v>
+        <v>-0.64617261382469604</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.116017180207776E-2</v>
+        <v>-0.25217430661441426</v>
       </c>
       <c r="E3">
-        <v>-0.1503788695611816</v>
+        <v>-0.27975677860402381</v>
       </c>
       <c r="F3">
-        <v>-0.23131702422421246</v>
+        <v>-0.28257384647990352</v>
       </c>
       <c r="G3">
-        <v>-0.31048375922814075</v>
+        <v>-0.28284210966192103</v>
       </c>
       <c r="H3">
-        <v>-0.38600255202304706</v>
+        <v>-0.28282180037253773</v>
       </c>
       <c r="I3">
-        <v>-0.45693930446816394</v>
+        <v>-0.28284341439117316</v>
       </c>
       <c r="J3">
-        <v>-0.52293249971866607</v>
+        <v>-0.28284634316397755</v>
       </c>
       <c r="K3">
-        <v>-0.58395471801777943</v>
+        <v>-0.28284662839676655</v>
       </c>
       <c r="L3">
-        <v>-0.64017110951967282</v>
+        <v>-0.28284667175987876</v>
       </c>
       <c r="M3">
-        <v>-0.69185028531839554</v>
+        <v>-0.28284668948652941</v>
       </c>
       <c r="N3">
-        <v>-0.73930894286029092</v>
+        <v>-0.2828466931759383</v>
       </c>
       <c r="O3">
-        <v>-0.7828780372145302</v>
+        <v>-0.28284669362590764</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.10308082675343523</v>
+        <v>0.15818317049370612</v>
       </c>
       <c r="E4">
-        <v>-0.19693717233325472</v>
+        <v>0.22562409240628123</v>
       </c>
       <c r="F4">
-        <v>-0.28209735461607477</v>
+        <v>0.24680659428910523</v>
       </c>
       <c r="G4">
-        <v>-0.35907441956254499</v>
+        <v>0.24309705668317261</v>
       </c>
       <c r="H4">
-        <v>-0.42841104083131082</v>
+        <v>0.22601877289076233</v>
       </c>
       <c r="I4">
-        <v>-0.49066382216665433</v>
+        <v>0.20221909409236982</v>
       </c>
       <c r="J4">
-        <v>-0.54638754765018338</v>
+        <v>0.1756350885476643</v>
       </c>
       <c r="K4">
-        <v>-0.59612567795153437</v>
+        <v>0.14861982746991342</v>
       </c>
       <c r="L4">
-        <v>-0.64040280476616784</v>
+        <v>0.1225509852357356</v>
       </c>
       <c r="M4">
-        <v>-0.67971972081226906</v>
+        <v>9.819272172349236E-2</v>
       </c>
       <c r="N4">
-        <v>-0.71454985243432734</v>
+        <v>7.5920296313132907E-2</v>
       </c>
       <c r="O4">
-        <v>-0.74533690915468354</v>
+        <v>5.5864663129260972E-2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.11247176983309093</v>
+        <v>6.0125107487224438E-2</v>
       </c>
       <c r="E5">
-        <v>0.21171608871213821</v>
+        <v>0.10126599757551191</v>
       </c>
       <c r="F5">
-        <v>0.29799934021112651</v>
+        <v>0.13414201112186874</v>
       </c>
       <c r="G5">
-        <v>0.37262973559353529</v>
+        <v>0.16407140227023453</v>
       </c>
       <c r="H5">
-        <v>0.43714735348514033</v>
+        <v>0.19321135843894599</v>
       </c>
       <c r="I5">
-        <v>0.49301262227108167</v>
+        <v>0.22199124993170549</v>
       </c>
       <c r="J5">
-        <v>0.54151196171711524</v>
+        <v>0.25000071813577784</v>
       </c>
       <c r="K5">
-        <v>0.58373969111000168</v>
+        <v>0.27655056650146292</v>
       </c>
       <c r="L5">
-        <v>0.62061449819391901</v>
+        <v>0.30097840862463809</v>
       </c>
       <c r="M5">
-        <v>0.65290431921539183</v>
+        <v>0.3227944366636879</v>
       </c>
       <c r="N5">
-        <v>0.68125141966732405</v>
+        <v>0.3417293762947452</v>
       </c>
       <c r="O5">
-        <v>0.70619458831911108</v>
+        <v>0.35772751462172414</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.19718651733062162</v>
+        <v>-7.116017180207776E-2</v>
       </c>
       <c r="E6">
-        <v>-0.34825103945954217</v>
+        <v>-0.1503788695611816</v>
       </c>
       <c r="F6">
-        <v>-0.45613634466065778</v>
+        <v>-0.23131702422421246</v>
       </c>
       <c r="G6">
-        <v>-0.52667046938414164</v>
+        <v>-0.31048375922814075</v>
       </c>
       <c r="H6">
-        <v>-0.56715666299275402</v>
+        <v>-0.38600255202304706</v>
       </c>
       <c r="I6">
-        <v>-0.5850237735008883</v>
+        <v>-0.45693930446816394</v>
       </c>
       <c r="J6">
-        <v>-0.58688321881643168</v>
+        <v>-0.52293249971866607</v>
       </c>
       <c r="K6">
-        <v>-0.57811222342780888</v>
+        <v>-0.58395471801777943</v>
       </c>
       <c r="L6">
-        <v>-0.56280147598900832</v>
+        <v>-0.64017110951967282</v>
       </c>
       <c r="M6">
-        <v>-0.54390689028150063</v>
+        <v>-0.69185028531839554</v>
       </c>
       <c r="N6">
-        <v>-0.52347366350202362</v>
+        <v>-0.73930894286029092</v>
       </c>
       <c r="O6">
-        <v>-0.5028596007403463</v>
+        <v>-0.7828780372145302</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-9.7210318392566997E-2</v>
+        <v>-0.10308082675343523</v>
       </c>
       <c r="E7">
-        <v>-8.7877594022683858E-2</v>
+        <v>-0.19693717233325472</v>
       </c>
       <c r="F7">
-        <v>-7.4330697080200014E-2</v>
+        <v>-0.28209735461607477</v>
       </c>
       <c r="G7">
-        <v>-6.1236790210730994E-2</v>
+        <v>-0.35907441956254499</v>
       </c>
       <c r="H7">
-        <v>-4.8489131253184423E-2</v>
+        <v>-0.42841104083131082</v>
       </c>
       <c r="I7">
-        <v>-3.6066766516448787E-2</v>
+        <v>-0.49066382216665433</v>
       </c>
       <c r="J7">
-        <v>-2.3794602810079928E-2</v>
+        <v>-0.54638754765018338</v>
       </c>
       <c r="K7">
-        <v>-1.1779658735461338E-2</v>
+        <v>-0.59612567795153437</v>
       </c>
       <c r="L7">
-        <v>-1.7822222305769288E-4</v>
+        <v>-0.64040280476616784</v>
       </c>
       <c r="M7">
-        <v>1.0728565987437766E-2</v>
+        <v>-0.67971972081226906</v>
       </c>
       <c r="N7">
-        <v>2.0653272343652995E-2</v>
+        <v>-0.71454985243432734</v>
       </c>
       <c r="O7">
-        <v>2.947576173232247E-2</v>
+        <v>-0.74533690915468354</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.15556803836695687</v>
+        <v>0.11247176983309093</v>
       </c>
       <c r="E8">
-        <v>0.29569747065094931</v>
+        <v>0.21171608871213821</v>
       </c>
       <c r="F8">
-        <v>0.42174967020896537</v>
+        <v>0.29799934021112651</v>
       </c>
       <c r="G8">
-        <v>0.53438626049641336</v>
+        <v>0.37262973559353529</v>
       </c>
       <c r="H8">
-        <v>0.63426027215857173</v>
+        <v>0.43714735348514033</v>
       </c>
       <c r="I8">
-        <v>0.72219201645485331</v>
+        <v>0.49301262227108167</v>
       </c>
       <c r="J8">
-        <v>0.79914882464420145</v>
+        <v>0.54151196171711524</v>
       </c>
       <c r="K8">
-        <v>0.86617849078452014</v>
+        <v>0.58373969111000168</v>
       </c>
       <c r="L8">
-        <v>0.92434182066205062</v>
+        <v>0.62061449819391901</v>
       </c>
       <c r="M8">
-        <v>0.97466349680829978</v>
+        <v>0.65290431921539183</v>
       </c>
       <c r="N8">
-        <v>1.0181015756820835</v>
+        <v>0.68125141966732405</v>
       </c>
       <c r="O8">
-        <v>1.0555313724217021</v>
+        <v>0.70619458831911108</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.20178996282040351</v>
+        <v>-6.3057603296256162E-2</v>
       </c>
       <c r="E9">
-        <v>0.31188216762777998</v>
+        <v>-0.1130290164458565</v>
       </c>
       <c r="F9">
-        <v>0.364488211141625</v>
+        <v>-0.15230458790323215</v>
       </c>
       <c r="G9">
-        <v>0.37683532452434254</v>
+        <v>-0.1829675997800988</v>
       </c>
       <c r="H9">
-        <v>0.35842020211989134</v>
+        <v>-0.20677811253407324</v>
       </c>
       <c r="I9">
-        <v>0.31481518732012814</v>
+        <v>-0.22518963392883026</v>
       </c>
       <c r="J9">
-        <v>0.24959489421744241</v>
+        <v>-0.23937880410527815</v>
       </c>
       <c r="K9">
-        <v>0.1655513952100276</v>
+        <v>-0.25028549295735775</v>
       </c>
       <c r="L9">
-        <v>6.5543565654840208E-2</v>
+        <v>-0.2586521496107908</v>
       </c>
       <c r="M9">
-        <v>-4.6948506704685103E-2</v>
+        <v>-0.26506034260733308</v>
       </c>
       <c r="N9">
-        <v>-0.16762228846196964</v>
+        <v>-0.26996261628899637</v>
       </c>
       <c r="O9">
-        <v>-0.29154062712550571</v>
+        <v>-0.27370939103373881</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.16510859409009504</v>
+        <v>-0.19718651733062162</v>
       </c>
       <c r="E10">
-        <v>0.29295599336855971</v>
+        <v>-0.34825103945954217</v>
       </c>
       <c r="F10">
-        <v>0.39415775158197275</v>
+        <v>-0.45613634466065778</v>
       </c>
       <c r="G10">
-        <v>0.47556256176764589</v>
+        <v>-0.52667046938414164</v>
       </c>
       <c r="H10">
-        <v>0.54183815910292155</v>
+        <v>-0.56715666299275402</v>
       </c>
       <c r="I10">
-        <v>0.59630147157834812</v>
+        <v>-0.5850237735008883</v>
       </c>
       <c r="J10">
-        <v>0.64138700890899525</v>
+        <v>-0.58688321881643168</v>
       </c>
       <c r="K10">
-        <v>0.67892861706961649</v>
+        <v>-0.57811222342780888</v>
       </c>
       <c r="L10">
-        <v>0.71033687427151615</v>
+        <v>-0.56280147598900832</v>
       </c>
       <c r="M10">
-        <v>0.73671553140231538</v>
+        <v>-0.54390689028150063</v>
       </c>
       <c r="N10">
-        <v>0.75894053456205501</v>
+        <v>-0.52347366350202362</v>
       </c>
       <c r="O10">
-        <v>0.77771527152471331</v>
+        <v>-0.5028596007403463</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.15818317049370612</v>
+        <v>7.3144414185177697E-2</v>
       </c>
       <c r="E11">
-        <v>0.22562409240628123</v>
+        <v>0.13786926364440322</v>
       </c>
       <c r="F11">
-        <v>0.24680659428910523</v>
+        <v>0.19545309259662158</v>
       </c>
       <c r="G11">
-        <v>0.24309705668317261</v>
+        <v>0.24691949775764177</v>
       </c>
       <c r="H11">
-        <v>0.22601877289076233</v>
+        <v>0.29310036633174019</v>
       </c>
       <c r="I11">
-        <v>0.20221909409236982</v>
+        <v>0.33468064910912942</v>
       </c>
       <c r="J11">
-        <v>0.1756350885476643</v>
+        <v>0.37223074820654334</v>
       </c>
       <c r="K11">
-        <v>0.14861982746991342</v>
+        <v>0.40623045389853962</v>
       </c>
       <c r="L11">
-        <v>0.1225509852357356</v>
+        <v>0.43708692672308991</v>
       </c>
       <c r="M11">
-        <v>9.819272172349236E-2</v>
+        <v>0.46514842524492195</v>
       </c>
       <c r="N11">
-        <v>7.5920296313132907E-2</v>
+        <v>0.49071493176029213</v>
       </c>
       <c r="O11">
-        <v>5.5864663129260972E-2</v>
+        <v>0.51404648371380757</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.16708770409047768</v>
+        <v>-9.7210318392566997E-2</v>
       </c>
       <c r="E12">
-        <v>0.25256171722631549</v>
+        <v>-8.7877594022683858E-2</v>
       </c>
       <c r="F12">
-        <v>0.29810603630905241</v>
+        <v>-7.4330697080200014E-2</v>
       </c>
       <c r="G12">
-        <v>0.32286605734705642</v>
+        <v>-6.1236790210730994E-2</v>
       </c>
       <c r="H12">
-        <v>0.33646230987515124</v>
+        <v>-4.8489131253184423E-2</v>
       </c>
       <c r="I12">
-        <v>0.34398746615852438</v>
+        <v>-3.6066766516448787E-2</v>
       </c>
       <c r="J12">
-        <v>0.34817725943559608</v>
+        <v>-2.3794602810079928E-2</v>
       </c>
       <c r="K12">
-        <v>0.3505315618129754</v>
+        <v>-1.1779658735461338E-2</v>
       </c>
       <c r="L12">
-        <v>0.35187549836044552</v>
+        <v>-1.7822222305769288E-4</v>
       </c>
       <c r="M12">
-        <v>0.35266333751880585</v>
+        <v>1.0728565987437766E-2</v>
       </c>
       <c r="N12">
-        <v>0.35314454089215019</v>
+        <v>2.0653272343652995E-2</v>
       </c>
       <c r="O12">
-        <v>0.35345576386562971</v>
+        <v>2.947576173232247E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.882117785576177E-2</v>
+        <v>0.15556803836695687</v>
       </c>
       <c r="E13">
-        <v>4.795947858333427E-2</v>
+        <v>0.29569747065094931</v>
       </c>
       <c r="F13">
-        <v>5.5138397185775956E-2</v>
+        <v>0.42174967020896537</v>
       </c>
       <c r="G13">
-        <v>5.0881911952497028E-2</v>
+        <v>0.53438626049641336</v>
       </c>
       <c r="H13">
-        <v>3.6749111720602912E-2</v>
+        <v>0.63426027215857173</v>
       </c>
       <c r="I13">
-        <v>1.4644291050713965E-2</v>
+        <v>0.72219201645485331</v>
       </c>
       <c r="J13">
-        <v>-1.3510770478580457E-2</v>
+        <v>0.79914882464420145</v>
       </c>
       <c r="K13">
-        <v>-4.5948744857648015E-2</v>
+        <v>0.86617849078452014</v>
       </c>
       <c r="L13">
-        <v>-8.1124847268557204E-2</v>
+        <v>0.92434182066205062</v>
       </c>
       <c r="M13">
-        <v>-0.11773640795112916</v>
+        <v>0.97466349680829978</v>
       </c>
       <c r="N13">
-        <v>-0.15471821571878977</v>
+        <v>1.0181015756820835</v>
       </c>
       <c r="O13">
-        <v>-0.19122675163066438</v>
+        <v>1.0555313724217021</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.69114870431254449</v>
+        <v>0.20178996282040351</v>
       </c>
       <c r="E14">
-        <v>0.97495201658538466</v>
+        <v>0.31188216762777998</v>
       </c>
       <c r="F14">
-        <v>1.1034549419945039</v>
+        <v>0.364488211141625</v>
       </c>
       <c r="G14">
-        <v>1.1533252413740431</v>
+        <v>0.37683532452434254</v>
       </c>
       <c r="H14">
-        <v>1.1576539453030326</v>
+        <v>0.35842020211989134</v>
       </c>
       <c r="I14">
-        <v>1.1335022582537841</v>
+        <v>0.31481518732012814</v>
       </c>
       <c r="J14">
-        <v>1.0907029503102834</v>
+        <v>0.24959489421744241</v>
       </c>
       <c r="K14">
-        <v>1.0353943152791993</v>
+        <v>0.1655513952100276</v>
       </c>
       <c r="L14">
-        <v>0.97164836649090713</v>
+        <v>6.5543565654840208E-2</v>
       </c>
       <c r="M14">
-        <v>0.9023015662881364</v>
+        <v>-4.6948506704685103E-2</v>
       </c>
       <c r="N14">
-        <v>0.82941043755914157</v>
+        <v>-0.16762228846196964</v>
       </c>
       <c r="O14">
-        <v>0.75451629384667473</v>
+        <v>-0.29154062712550571</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.13719124179541542</v>
+        <v>0.1672785545092027</v>
       </c>
       <c r="E15">
-        <v>0.33078736596318736</v>
+        <v>0.26047119188891099</v>
       </c>
       <c r="F15">
-        <v>0.5130006713100117</v>
+        <v>0.31445552636987739</v>
       </c>
       <c r="G15">
-        <v>0.67024045952875255</v>
+        <v>0.34639634140844389</v>
       </c>
       <c r="H15">
-        <v>0.80116579780910124</v>
+        <v>0.36551828329689606</v>
       </c>
       <c r="I15">
-        <v>0.90813691691589404</v>
+        <v>0.37705275007543215</v>
       </c>
       <c r="J15">
-        <v>0.99460047777762628</v>
+        <v>0.38403822430368806</v>
       </c>
       <c r="K15">
-        <v>1.0640042381691437</v>
+        <v>0.38827924312547446</v>
       </c>
       <c r="L15">
-        <v>1.1194445383973788</v>
+        <v>0.39085799320711989</v>
       </c>
       <c r="M15">
-        <v>1.1635656321161427</v>
+        <v>0.39242757211665702</v>
       </c>
       <c r="N15">
-        <v>1.1985691641892209</v>
+        <v>0.39338343496164219</v>
       </c>
       <c r="O15">
-        <v>1.2262620760693883</v>
+        <v>0.39396571986694728</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-5.7111961821752405E-2</v>
+        <v>0.16510859409009504</v>
       </c>
       <c r="E16">
-        <v>-5.788210376935593E-2</v>
+        <v>0.29295599336855971</v>
       </c>
       <c r="F16">
-        <v>-2.1594339811055539E-2</v>
+        <v>0.39415775158197275</v>
       </c>
       <c r="G16">
-        <v>3.3328159946529046E-2</v>
+        <v>0.47556256176764589</v>
       </c>
       <c r="H16">
-        <v>9.3649132755352138E-2</v>
+        <v>0.54183815910292155</v>
       </c>
       <c r="I16">
-        <v>0.15126776778573348</v>
+        <v>0.59630147157834812</v>
       </c>
       <c r="J16">
-        <v>0.20191097435841232</v>
+        <v>0.64138700890899525</v>
       </c>
       <c r="K16">
-        <v>0.2438092664196021</v>
+        <v>0.67892861706961649</v>
       </c>
       <c r="L16">
-        <v>0.27671999274835546</v>
+        <v>0.71033687427151615</v>
       </c>
       <c r="M16">
-        <v>0.30129359021133328</v>
+        <v>0.73671553140231538</v>
       </c>
       <c r="N16">
-        <v>0.31867282560925547</v>
+        <v>0.75894053456205501</v>
       </c>
       <c r="O16">
-        <v>0.33022485869868545</v>
+        <v>0.77771527152471331</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>-0.62094758928550564</v>
+        <v>0.16708770409047768</v>
       </c>
       <c r="E17">
-        <v>-0.64531981187642584</v>
+        <v>0.25256171722631549</v>
       </c>
       <c r="F17">
-        <v>-0.64630078127172341</v>
+        <v>0.29810603630905241</v>
       </c>
       <c r="G17">
-        <v>-0.64674596138139806</v>
+        <v>0.32286605734705642</v>
       </c>
       <c r="H17">
-        <v>-0.64621899239190284</v>
+        <v>0.33646230987515124</v>
       </c>
       <c r="I17">
-        <v>-0.64637770785169479</v>
+        <v>0.34398746615852438</v>
       </c>
       <c r="J17">
-        <v>-0.6466267148139111</v>
+        <v>0.34817725943559608</v>
       </c>
       <c r="K17">
-        <v>-0.64696838339731266</v>
+        <v>0.3505315618129754</v>
       </c>
       <c r="L17">
-        <v>-0.64688274589026096</v>
+        <v>0.35187549836044552</v>
       </c>
       <c r="M17">
-        <v>-0.64654048094859995</v>
+        <v>0.35266333751880585</v>
       </c>
       <c r="N17">
-        <v>-0.64640212240371864</v>
+        <v>0.35314454089215019</v>
       </c>
       <c r="O17">
-        <v>-0.64617261382469604</v>
+        <v>0.35345576386562971</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>-0.25217430661441426</v>
+        <v>2.882117785576177E-2</v>
       </c>
       <c r="E18">
-        <v>-0.27975677860402381</v>
+        <v>4.795947858333427E-2</v>
       </c>
       <c r="F18">
-        <v>-0.28257384647990352</v>
+        <v>5.5138397185775956E-2</v>
       </c>
       <c r="G18">
-        <v>-0.28284210966192103</v>
+        <v>5.0881911952497028E-2</v>
       </c>
       <c r="H18">
-        <v>-0.28282180037253773</v>
+        <v>3.6749111720602912E-2</v>
       </c>
       <c r="I18">
-        <v>-0.28284341439117316</v>
+        <v>1.4644291050713965E-2</v>
       </c>
       <c r="J18">
-        <v>-0.28284634316397755</v>
+        <v>-1.3510770478580457E-2</v>
       </c>
       <c r="K18">
-        <v>-0.28284662839676655</v>
+        <v>-4.5948744857648015E-2</v>
       </c>
       <c r="L18">
-        <v>-0.28284667175987876</v>
+        <v>-8.1124847268557204E-2</v>
       </c>
       <c r="M18">
-        <v>-0.28284668948652941</v>
+        <v>-0.11773640795112916</v>
       </c>
       <c r="N18">
-        <v>-0.2828466931759383</v>
+        <v>-0.15471821571878977</v>
       </c>
       <c r="O18">
-        <v>-0.28284669362590764</v>
+        <v>-0.19122675163066438</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>-6.3057603296256162E-2</v>
+        <v>0.69114870431254449</v>
       </c>
       <c r="E19">
-        <v>-0.1130290164458565</v>
+        <v>0.97495201658538466</v>
       </c>
       <c r="F19">
-        <v>-0.15230458790323215</v>
+        <v>1.1034549419945039</v>
       </c>
       <c r="G19">
-        <v>-0.1829675997800988</v>
+        <v>1.1533252413740431</v>
       </c>
       <c r="H19">
-        <v>-0.20677811253407324</v>
+        <v>1.1576539453030326</v>
       </c>
       <c r="I19">
-        <v>-0.22518963392883026</v>
+        <v>1.1335022582537841</v>
       </c>
       <c r="J19">
-        <v>-0.23937880410527815</v>
+        <v>1.0907029503102834</v>
       </c>
       <c r="K19">
-        <v>-0.25028549295735775</v>
+        <v>1.0353943152791993</v>
       </c>
       <c r="L19">
-        <v>-0.2586521496107908</v>
+        <v>0.97164836649090713</v>
       </c>
       <c r="M19">
-        <v>-0.26506034260733308</v>
+        <v>0.9023015662881364</v>
       </c>
       <c r="N19">
-        <v>-0.26996261628899637</v>
+        <v>0.82941043755914157</v>
       </c>
       <c r="O19">
-        <v>-0.27370939103373881</v>
+        <v>0.75451629384667473</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.3144414185177697E-2</v>
+        <v>0.22786932707314567</v>
       </c>
       <c r="E20">
-        <v>0.13786926364440322</v>
+        <v>0.37594334715912125</v>
       </c>
       <c r="F20">
-        <v>0.19545309259662158</v>
+        <v>0.47647020251642158</v>
       </c>
       <c r="G20">
-        <v>0.24691949775764177</v>
+        <v>0.54657760357361718</v>
       </c>
       <c r="H20">
-        <v>0.29310036633174019</v>
+        <v>0.59633410145618959</v>
       </c>
       <c r="I20">
-        <v>0.33468064910912942</v>
+        <v>0.63207108847366356</v>
       </c>
       <c r="J20">
-        <v>0.37223074820654334</v>
+        <v>0.6579512529587207</v>
       </c>
       <c r="K20">
-        <v>0.40623045389853962</v>
+        <v>0.67680305832576926</v>
       </c>
       <c r="L20">
-        <v>0.43708692672308991</v>
+        <v>0.69059282908011799</v>
       </c>
       <c r="M20">
-        <v>0.46514842524492195</v>
+        <v>0.70071044343086342</v>
       </c>
       <c r="N20">
-        <v>0.49071493176029213</v>
+        <v>0.70815012568905022</v>
       </c>
       <c r="O20">
-        <v>0.51404648371380757</v>
+        <v>0.71362944409464157</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1672785545092027</v>
+        <v>0.13719124179541542</v>
       </c>
       <c r="E21">
-        <v>0.26047119188891099</v>
+        <v>0.33078736596318736</v>
       </c>
       <c r="F21">
-        <v>0.31445552636987739</v>
+        <v>0.5130006713100117</v>
       </c>
       <c r="G21">
-        <v>0.34639634140844389</v>
+        <v>0.67024045952875255</v>
       </c>
       <c r="H21">
-        <v>0.36551828329689606</v>
+        <v>0.80116579780910124</v>
       </c>
       <c r="I21">
-        <v>0.37705275007543215</v>
+        <v>0.90813691691589404</v>
       </c>
       <c r="J21">
-        <v>0.38403822430368806</v>
+        <v>0.99460047777762628</v>
       </c>
       <c r="K21">
-        <v>0.38827924312547446</v>
+        <v>1.0640042381691437</v>
       </c>
       <c r="L21">
-        <v>0.39085799320711989</v>
+        <v>1.1194445383973788</v>
       </c>
       <c r="M21">
-        <v>0.39242757211665702</v>
+        <v>1.1635656321161427</v>
       </c>
       <c r="N21">
-        <v>0.39338343496164219</v>
+        <v>1.1985691641892209</v>
       </c>
       <c r="O21">
-        <v>0.39396571986694728</v>
+        <v>1.2262620760693883</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.22786932707314567</v>
+        <v>-5.7111961821752405E-2</v>
       </c>
       <c r="E22">
-        <v>0.37594334715912125</v>
+        <v>-5.788210376935593E-2</v>
       </c>
       <c r="F22">
-        <v>0.47647020251642158</v>
+        <v>-2.1594339811055539E-2</v>
       </c>
       <c r="G22">
-        <v>0.54657760357361718</v>
+        <v>3.3328159946529046E-2</v>
       </c>
       <c r="H22">
-        <v>0.59633410145618959</v>
+        <v>9.3649132755352138E-2</v>
       </c>
       <c r="I22">
-        <v>0.63207108847366356</v>
+        <v>0.15126776778573348</v>
       </c>
       <c r="J22">
-        <v>0.6579512529587207</v>
+        <v>0.20191097435841232</v>
       </c>
       <c r="K22">
-        <v>0.67680305832576926</v>
+        <v>0.2438092664196021</v>
       </c>
       <c r="L22">
-        <v>0.69059282908011799</v>
+        <v>0.27671999274835546</v>
       </c>
       <c r="M22">
-        <v>0.70071044343086342</v>
+        <v>0.30129359021133328</v>
       </c>
       <c r="N22">
-        <v>0.70815012568905022</v>
+        <v>0.31867282560925547</v>
       </c>
       <c r="O22">
-        <v>0.71362944409464157</v>
+        <v>0.33022485869868545</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:O22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5787,9 +5851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5806,236 +5868,239 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>2.7179999999999999E-2</v>
+        <v>0.34657359027997264</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>2.5672117798516494E-2</v>
+        <v>0.23104906018664842</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>1.7328679513998631E-2</v>
+        <v>3.0136833937388925E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.1002336199364211E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.7179999999999999E-2</v>
+        <v>2.5672117798516494E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>7.7016353395549478E-2</v>
+        <v>1.7328679513998631E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2.7179999999999999E-2</v>
+        <v>1.1002336199364211E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>6.9314718055994526E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1.6503504299046318E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>3.0136833937388925E-2</v>
+        <v>7.453195489891885E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>5.7762265046662105E-2</v>
+        <v>7.7016353395549478E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>1.332975347230664E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>1.2602676010180823E-2</v>
+        <v>6.9314718055994526E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>3.0136833937388925E-2</v>
+        <v>4.9510512897138946E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>3.3007008598092635E-2</v>
+        <v>1.6503504299046318E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>0.34657359027997264</v>
+        <v>5.7762265046662105E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.23104906018664842</v>
+        <v>1.332975347230664E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>2.7179999999999999E-2</v>
+        <v>1.2602676010180823E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>7.453195489891885E-3</v>
+        <v>3.0136833937388925E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>4.9510512897138946E-2</v>
+        <v>3.0136833937388925E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>3.0136833937388925E-2</v>
+        <v>3.3007008598092635E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6044,9 +6109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6063,236 +6126,239 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>6.242669444439939E-2</v>
+        <v>0.44288657618668342</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>0.10522676713463036</v>
+        <v>0.37982964972805122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>2.0858239697015505E-2</v>
+        <v>0.17120461804021761</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3.3546638513152101E-2</v>
+        <v>6.242669444439939E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3.9619455373539288E-2</v>
+        <v>0.10522676713463036</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.18601110490312825</v>
+        <v>2.0858239697015505E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.13123236983890324</v>
+        <v>3.3546638513152101E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>0.20777488757745535</v>
+        <v>4.4591654910338729E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5.4767494999982819E-2</v>
+        <v>3.9619455373539288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>0.17120461804021761</v>
+        <v>2.5700240496800562E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0.13383936151722145</v>
+        <v>0.18601110490312825</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>4.6082765886743558E-2</v>
+        <v>0.13123236983890324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0.6910371803648</v>
+        <v>0.20777488757745535</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>0.1741844147037204</v>
+        <v>0.13019562378812793</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>7.9007782962686582E-2</v>
+        <v>5.4767494999982819E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>0.44288657618668342</v>
+        <v>0.13383936151722145</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.37982964972805122</v>
+        <v>4.6082765886743558E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>4.4591654910338729E-2</v>
+        <v>0.6910371803648</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20">
-        <v>2.5700240496800562E-2</v>
+        <v>9.9909635642115913E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>0.13019562378812793</v>
+        <v>0.1741844147037204</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>9.9909635642115913E-2</v>
+        <v>7.9007782962686582E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C22">
+    <sortCondition ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6301,9 +6367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6333,83 +6397,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
+      <c r="A1" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6454,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -6477,7 +6558,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6534,10 +6615,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -6545,7 +6626,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6554,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6566,34 +6647,34 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6613,7 +6694,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6646,42 +6727,42 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6708,11 +6789,11 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -6723,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -6749,7 +6830,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6785,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -6797,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -6817,7 +6898,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6844,40 +6925,40 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -6885,7 +6966,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6909,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -6948,12 +7029,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6980,25 +7061,25 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -7021,7 +7102,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7048,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -7089,10 +7170,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -7101,10 +7182,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -7157,31 +7238,31 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -7220,12 +7301,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7252,20 +7333,20 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
         <v>0</v>
       </c>
@@ -7282,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -7293,7 +7374,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7344,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -7356,18 +7437,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -7385,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -7397,13 +7478,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -7429,7 +7510,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7456,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7497,7 +7578,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7509,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -7554,18 +7635,18 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7610,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -7633,7 +7714,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7701,13 +7782,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -7758,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -7769,7 +7850,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7781,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -7808,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -7820,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -7829,13 +7910,16 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState columnSort="1" ref="B1:V22">
+    <sortCondition ref="B1:V1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>